--- a/angular/src/assets/image/bulkuploadtemplate.xlsx
+++ b/angular/src/assets/image/bulkuploadtemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AR Project\Profluent Hotelier\angular\src\assets\image\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lanka\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72BB02D-44A6-4AFF-ACC5-A40181193D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84B45E1-1EAB-4FA3-8F2D-0BD048E8F497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Username</t>
   </si>
@@ -56,34 +56,31 @@
     <t>Date of joining(dd-mm-yyyy)</t>
   </si>
   <si>
-    <t>rima</t>
+    <t>Course</t>
   </si>
   <si>
-    <t>rima@yopmail.com</t>
+    <t>Year</t>
   </si>
   <si>
-    <t>chennai</t>
+    <t>Subscription End Date(dd-mm-yyyy)</t>
+  </si>
+  <si>
+    <t>Madurai</t>
   </si>
   <si>
     <t>india</t>
   </si>
   <si>
-    <t>ateam</t>
+    <t>Ateam</t>
   </si>
   <si>
-    <t>angular</t>
+    <t>Angular</t>
   </si>
   <si>
-    <t>tom</t>
+    <t>test@gmail.com</t>
   </si>
   <si>
-    <t>tom@yopmail.com</t>
-  </si>
-  <si>
-    <t>Course</t>
-  </si>
-  <si>
-    <t>Year</t>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -94,12 +91,19 @@
     <numFmt numFmtId="164" formatCode="[$-4010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,27 +120,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,8 +165,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7E1CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -158,14 +186,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB7E1CD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB7E1CD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB7E1CD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB7E1CD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB7E1CD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -173,26 +234,34 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{184CE7E1-49AB-4490-BD11-6DC82A314492}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{4CCF4F6D-F913-4F59-BB7A-9E72723F0CE4}"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -621,27 +690,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:J977"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.6640625" style="1" hidden="1"/>
+    <col min="7" max="7" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.6640625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -661,87 +731,64 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>6</v>
+      <c r="B2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>91</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1111111</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6">
+        <v>45911</v>
+      </c>
+      <c r="J2" s="6">
+        <v>46276</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4">
-        <f>91</f>
-        <v>91</v>
-      </c>
-      <c r="D2" s="4">
-        <v>7539517843</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="8">
-        <v>45585</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1">
-        <v>91</v>
-      </c>
-      <c r="D3" s="1">
-        <v>7845659847</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="8">
-        <v>45585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -1703,35 +1750,11 @@
     <row r="975" ht="15.75" customHeight="1"/>
     <row r="976" ht="15.75" customHeight="1"/>
     <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="mailto:rima@yopmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D5405263-DAE8-4331-AA86-FAA86AEF7D2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>